--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\multiprocessor_matmult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD1125F-C297-4666-ADF1-DD0EC60AACE9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B0B01E-67EE-492A-B0CA-026ECFD3583B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,8 +510,8 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L3" sqref="L3"/>
+      <pane xSplit="4" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -585,14 +585,14 @@
         <v>4.6479999999999997</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G8" si="0">D3/F3</f>
+        <f t="shared" ref="G3" si="0">D3/F3</f>
         <v>1.1820137693631669</v>
       </c>
       <c r="H3">
         <v>3.738</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I8" si="1">D3/H3</f>
+        <f t="shared" ref="I3" si="1">D3/H3</f>
         <v>1.4697699304440877</v>
       </c>
       <c r="J3">
@@ -600,7 +600,7 @@
         <v>11.996922</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K2:K7" si="2">B3/J3</f>
+        <f t="shared" ref="K3" si="2">B3/J3</f>
         <v>1.0471456761992783</v>
       </c>
       <c r="L3" s="4">
@@ -611,12 +611,12 @@
         <v>2.1924739608784884</v>
       </c>
       <c r="N3">
-        <f>0.01/1000</f>
-        <v>1.0000000000000001E-5</v>
+        <f>0.01</f>
+        <v>0.01</v>
       </c>
       <c r="O3" s="1">
         <f>B3/N3</f>
-        <v>1256252.4999999998</v>
+        <v>1256.2524999999998</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
